--- a/data_analysis/assets/output_files/marks_distribution/T_marks_distribution_report.xlsx
+++ b/data_analysis/assets/output_files/marks_distribution/T_marks_distribution_report.xlsx
@@ -14,27 +14,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
-    <t>BSA210</t>
+    <t>BSA408</t>
   </si>
   <si>
-    <t>BSA211</t>
+    <t>BSA410</t>
   </si>
   <si>
-    <t>BSA212</t>
+    <t>BSA412</t>
   </si>
   <si>
-    <t>BSA256</t>
+    <t>BSA460</t>
   </si>
   <si>
-    <t>BSA257</t>
+    <t>BSA461</t>
   </si>
   <si>
-    <t>BSA258</t>
+    <t>BSA462</t>
   </si>
   <si>
-    <t>TMUGE201</t>
+    <t>BSA463</t>
+  </si>
+  <si>
+    <t>TMUGE401</t>
   </si>
   <si>
     <t>0-10</t>
@@ -173,7 +176,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>BSA210</c:v>
+                  <c:v>BSA408</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -249,22 +252,22 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>13</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -279,7 +282,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>BSA211</c:v>
+                  <c:v>BSA410</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -358,19 +361,19 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5</c:v>
-                </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -385,7 +388,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>BSA212</c:v>
+                  <c:v>BSA412</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -461,19 +464,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
@@ -491,7 +494,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>BSA256</c:v>
+                  <c:v>BSA460</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -570,19 +573,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -597,7 +600,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>BSA257</c:v>
+                  <c:v>BSA461</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -679,16 +682,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>23</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -703,7 +706,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>BSA258</c:v>
+                  <c:v>BSA462</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -788,10 +791,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>22</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>2</c:v>
@@ -809,7 +812,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>TMUGE201</c:v>
+                  <c:v>BSA463</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -885,22 +888,128 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'T_distribution'!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TMUGE401</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dLbls>
+            <c:numFmt formatCode="0" sourceLinked="0"/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" baseline="0"/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showVal val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'T_distribution'!$A$2:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0-10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10-20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20-30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30-40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40-50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50-60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60-70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70-80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80-90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90-100</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'T_distribution'!$I$2:$I$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5</c:v>
-                </c:pt>
                 <c:pt idx="7">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1306,13 +1415,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1334,10 +1443,13 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1360,10 +1472,13 @@
       <c r="H2">
         <v>0</v>
       </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1386,10 +1501,13 @@
       <c r="H3">
         <v>0</v>
       </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1412,10 +1530,13 @@
       <c r="H4">
         <v>0</v>
       </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1438,19 +1559,22 @@
       <c r="H5">
         <v>0</v>
       </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1462,137 +1586,155 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7">
         <v>4</v>
       </c>
       <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
         <v>2</v>
       </c>
-      <c r="D7">
-        <v>9</v>
-      </c>
-      <c r="E7">
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>13</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10">
         <v>2</v>
       </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>6</v>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10">
+        <v>15</v>
+      </c>
+      <c r="F10">
+        <v>12</v>
+      </c>
+      <c r="G10">
+        <v>18</v>
+      </c>
+      <c r="H10">
+        <v>14</v>
+      </c>
+      <c r="I10">
+        <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8">
-        <v>12</v>
-      </c>
-      <c r="C8">
-        <v>11</v>
-      </c>
-      <c r="D8">
+    <row r="11" spans="1:9">
+      <c r="A11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>7</v>
+      </c>
+      <c r="F11">
         <v>10</v>
-      </c>
-      <c r="E8">
-        <v>10</v>
-      </c>
-      <c r="F8">
-        <v>2</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9">
-        <v>13</v>
-      </c>
-      <c r="C9">
-        <v>15</v>
-      </c>
-      <c r="D9">
-        <v>3</v>
-      </c>
-      <c r="E9">
-        <v>10</v>
-      </c>
-      <c r="F9">
-        <v>23</v>
-      </c>
-      <c r="G9">
-        <v>14</v>
-      </c>
-      <c r="H9">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10">
-        <v>5</v>
-      </c>
-      <c r="C10">
-        <v>5</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>9</v>
-      </c>
-      <c r="F10">
-        <v>7</v>
-      </c>
-      <c r="G10">
-        <v>22</v>
-      </c>
-      <c r="H10">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
       </c>
       <c r="G11">
         <v>2</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
